--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="B2:E4"/>
@@ -461,47 +461,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11:11:17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>08-09-22</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1662624677.601128</v>
-      </c>
-    </row>
+    <row r="2" ht="13.8" customHeight="1" s="3"/>
     <row r="3" ht="13.8" customHeight="1" s="3"/>
     <row r="4" ht="13.8" customHeight="1" s="3"/>
     <row r="5" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -68,11 +70,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,60 +456,250 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="B2:E4"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="10.64" customWidth="1" style="2" min="2" max="2"/>
-    <col width="18.57" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.64" customWidth="1" style="4" min="2" max="2"/>
+    <col width="18.57" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3"/>
-    <row r="3" ht="13.8" customHeight="1" s="3"/>
-    <row r="4" ht="13.8" customHeight="1" s="3"/>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="6" ht="13.8" customHeight="1" s="3"/>
-    <row r="7" ht="13.8" customHeight="1" s="3"/>
-    <row r="8" ht="13.8" customHeight="1" s="3"/>
-    <row r="9" ht="13.8" customHeight="1" s="3"/>
-    <row r="10" ht="13.8" customHeight="1" s="3"/>
-    <row r="11" ht="13.8" customHeight="1" s="3"/>
-    <row r="12" ht="13.8" customHeight="1" s="3"/>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
-    <row r="19" ht="13.8" customHeight="1" s="3"/>
-    <row r="20" ht="13.8" customHeight="1" s="3"/>
-    <row r="21" ht="13.8" customHeight="1" s="3"/>
+    <row r="2" ht="13.8" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>12:28:36</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1662974916.832028</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="5">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>12:28:42</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1662974922.815756</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="5">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>12:28:48</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1662974928.110093</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>12:28:54</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1662974934.294554</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>12:29:34</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1662974974.011574</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="5">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>12:29:39</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1662974979.861295</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="5">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>12:29:45</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1662974985.227644</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="5">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>12:29:52</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1662974992.448435</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>12:30:51</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1662975051.626471</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="5">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12:30:56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12-09-22</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1662975056.842939</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="5"/>
+    <row r="13" ht="13.8" customHeight="1" s="5"/>
+    <row r="14" ht="13.8" customHeight="1" s="5"/>
+    <row r="15" ht="13.8" customHeight="1" s="5"/>
+    <row r="16" ht="13.8" customHeight="1" s="5"/>
+    <row r="17" ht="13.8" customHeight="1" s="5"/>
+    <row r="18" ht="13.8" customHeight="1" s="5"/>
+    <row r="19" ht="13.8" customHeight="1" s="5"/>
+    <row r="20" ht="13.8" customHeight="1" s="5"/>
+    <row r="21" ht="13.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>12:28:36</t>
+          <t>15:18:33</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -507,189 +507,37 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1662974916.832028</v>
+        <v>1662985113.149</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="5">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>12:28:42</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15:18:40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>12-09-22</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1662974922.815756</v>
+      <c r="D3" t="n">
+        <v>1662985120.031521</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="5">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>12:28:48</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1662974928.110093</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>12:28:54</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1662974934.294554</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="5">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>12:29:34</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1662974974.011574</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="5">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>12:29:39</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1662974979.861295</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="5">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>12:29:45</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1662974985.227644</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="5">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>12:29:52</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1662974992.448435</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="5">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>12:30:51</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1662975051.626471</v>
-      </c>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="5">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12:30:56</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1662975056.842939</v>
-      </c>
-    </row>
+    <row r="4" ht="13.8" customHeight="1" s="5"/>
+    <row r="5" ht="13.8" customHeight="1" s="5"/>
+    <row r="6" ht="13.8" customHeight="1" s="5"/>
+    <row r="7" ht="13.8" customHeight="1" s="5"/>
+    <row r="8" ht="13.8" customHeight="1" s="5"/>
+    <row r="9" ht="13.8" customHeight="1" s="5"/>
+    <row r="10" ht="13.8" customHeight="1" s="5"/>
+    <row r="11" ht="13.8" customHeight="1" s="5"/>
     <row r="12" ht="13.8" customHeight="1" s="5"/>
     <row r="13" ht="13.8" customHeight="1" s="5"/>
     <row r="14" ht="13.8" customHeight="1" s="5"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -498,16 +498,16 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>15:18:33</t>
+          <t>10:53:13</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>12-09-22</t>
+          <t>13-09-22</t>
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1662985113.149</v>
+        <v>1663055593.602906</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="5">
@@ -518,16 +518,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:18:40</t>
+          <t>10:53:19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12-09-22</t>
+          <t>13-09-22</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1662985120.031521</v>
+        <v>1663055599.481257</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="5"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -16,10 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -41,6 +39,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FFDDDDDD"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,17 +75,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -98,70 +100,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -459,58 +453,58 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="10.64" customWidth="1" style="4" min="2" max="2"/>
-    <col width="18.57" customWidth="1" style="4" min="4" max="4"/>
+    <col width="10.64" customWidth="1" style="3" min="2" max="2"/>
+    <col width="18.57" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="5">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>10:53:13</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>13:01:33</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>13-09-22</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1663055593.602906</v>
+      <c r="D2" s="3" t="n">
+        <v>1663063293.555628</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="5">
+    <row r="3" ht="13.8" customHeight="1" s="4">
       <c r="A3" t="inlineStr">
         <is>
           <t>2.</t>
@@ -518,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:53:19</t>
+          <t>13:01:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,27 +521,36 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1663055599.481257</v>
+        <v>1663063300.104693</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="5"/>
-    <row r="5" ht="13.8" customHeight="1" s="5"/>
-    <row r="6" ht="13.8" customHeight="1" s="5"/>
-    <row r="7" ht="13.8" customHeight="1" s="5"/>
-    <row r="8" ht="13.8" customHeight="1" s="5"/>
-    <row r="9" ht="13.8" customHeight="1" s="5"/>
-    <row r="10" ht="13.8" customHeight="1" s="5"/>
-    <row r="11" ht="13.8" customHeight="1" s="5"/>
-    <row r="12" ht="13.8" customHeight="1" s="5"/>
-    <row r="13" ht="13.8" customHeight="1" s="5"/>
-    <row r="14" ht="13.8" customHeight="1" s="5"/>
-    <row r="15" ht="13.8" customHeight="1" s="5"/>
-    <row r="16" ht="13.8" customHeight="1" s="5"/>
-    <row r="17" ht="13.8" customHeight="1" s="5"/>
-    <row r="18" ht="13.8" customHeight="1" s="5"/>
-    <row r="19" ht="13.8" customHeight="1" s="5"/>
-    <row r="20" ht="13.8" customHeight="1" s="5"/>
-    <row r="21" ht="13.8" customHeight="1" s="5"/>
+    <row r="4" ht="13.8" customHeight="1" s="4"/>
+    <row r="5" ht="13.8" customHeight="1" s="4"/>
+    <row r="6" ht="13.8" customHeight="1" s="4"/>
+    <row r="7" ht="13.8" customHeight="1" s="4"/>
+    <row r="8" ht="13.8" customHeight="1" s="4"/>
+    <row r="9" ht="13.8" customHeight="1" s="4"/>
+    <row r="10" ht="13.8" customHeight="1" s="4"/>
+    <row r="11" ht="13.8" customHeight="1" s="4"/>
+    <row r="12" ht="13.8" customHeight="1" s="4"/>
+    <row r="13" ht="13.8" customHeight="1" s="4"/>
+    <row r="14" ht="13.8" customHeight="1" s="4"/>
+    <row r="15" ht="13.8" customHeight="1" s="4"/>
+    <row r="16" ht="13.8" customHeight="1" s="4"/>
+    <row r="17" ht="13.8" customHeight="1" s="4"/>
+    <row r="18" ht="13.8" customHeight="1" s="4"/>
+    <row r="19" ht="13.8" customHeight="1" s="4"/>
+    <row r="20" ht="13.8" customHeight="1" s="4"/>
+    <row r="21" ht="13.8" customHeight="1" s="4"/>
+    <row r="22" ht="13.8" customHeight="1" s="4"/>
+    <row r="23" ht="13.8" customHeight="1" s="4"/>
+    <row r="24" ht="13.8" customHeight="1" s="4"/>
+    <row r="25" ht="13.8" customHeight="1" s="4"/>
+    <row r="26" ht="13.8" customHeight="1" s="4"/>
+    <row r="27" ht="13.8" customHeight="1" s="4"/>
+    <row r="28" ht="13.8" customHeight="1" s="4"/>
+    <row r="29" ht="13.8" customHeight="1" s="4"/>
+    <row r="30" ht="13.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -483,165 +483,32 @@
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>09:05:57</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1663221957.289752</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:06:24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19-09-22</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1663578384.498386</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>09:07:33</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1663222053.191048</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>09:08:17</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1663222097.150109</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>09:09:20</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1663222160.423957</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>09:19:19</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1663222759.962584</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>09:20:51</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1663222851.067035</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>09:21:29</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1663222889.776805</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="3">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>09:26:07</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1663223167.138736</v>
-      </c>
-    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="4" ht="13.8" customHeight="1" s="3"/>
+    <row r="5" ht="13.8" customHeight="1" s="3"/>
+    <row r="6" ht="13.8" customHeight="1" s="3"/>
+    <row r="7" ht="13.8" customHeight="1" s="3"/>
+    <row r="8" ht="13.8" customHeight="1" s="3"/>
+    <row r="9" ht="13.8" customHeight="1" s="3"/>
     <row r="10" ht="13.8" customHeight="1" s="3"/>
     <row r="11" ht="13.8" customHeight="1" s="3"/>
     <row r="12" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -483,27 +483,65 @@
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12:06:24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19-09-22</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1663578384.498386</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>13:27:09</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>20-09-22</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1663669629.828427</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3"/>
-    <row r="4" ht="13.8" customHeight="1" s="3"/>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>13:27:17</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>20-09-22</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1663669637.66614</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:27:26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20-09-22</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1663669646.232369</v>
+      </c>
+    </row>
     <row r="5" ht="13.8" customHeight="1" s="3"/>
     <row r="6" ht="13.8" customHeight="1" s="3"/>
     <row r="7" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -68,7 +68,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -448,126 +451,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="10.64" customWidth="1" style="2" min="2" max="2"/>
-    <col width="18.57" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.64" customWidth="1" style="3" min="2" max="2"/>
+    <col width="18.57" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="4">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>13:27:09</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1663669629.828427</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09:58:27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21-09-22</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1663743507.768512</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>13:27:17</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1663669637.66614</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13:27:26</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1663669646.232369</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="6" ht="13.8" customHeight="1" s="3"/>
-    <row r="7" ht="13.8" customHeight="1" s="3"/>
-    <row r="8" ht="13.8" customHeight="1" s="3"/>
-    <row r="9" ht="13.8" customHeight="1" s="3"/>
-    <row r="10" ht="13.8" customHeight="1" s="3"/>
-    <row r="11" ht="13.8" customHeight="1" s="3"/>
-    <row r="12" ht="13.8" customHeight="1" s="3"/>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
-    <row r="19" ht="13.8" customHeight="1" s="3"/>
-    <row r="20" ht="13.8" customHeight="1" s="3"/>
-    <row r="21" ht="13.8" customHeight="1" s="3"/>
-    <row r="22" ht="13.8" customHeight="1" s="3"/>
-    <row r="23" ht="13.8" customHeight="1" s="3"/>
-    <row r="24" ht="13.8" customHeight="1" s="3"/>
-    <row r="25" ht="13.8" customHeight="1" s="3"/>
-    <row r="26" ht="13.8" customHeight="1" s="3"/>
-    <row r="27" ht="13.8" customHeight="1" s="3"/>
-    <row r="28" ht="13.8" customHeight="1" s="3"/>
-    <row r="29" ht="13.8" customHeight="1" s="3"/>
-    <row r="30" ht="13.8" customHeight="1" s="3"/>
+    <row r="3" ht="13.8" customHeight="1" s="4"/>
+    <row r="4" ht="13.8" customHeight="1" s="4"/>
+    <row r="5" ht="13.8" customHeight="1" s="4"/>
+    <row r="6" ht="13.8" customHeight="1" s="4"/>
+    <row r="7" ht="13.8" customHeight="1" s="4"/>
+    <row r="8" ht="13.8" customHeight="1" s="4"/>
+    <row r="9" ht="13.8" customHeight="1" s="4"/>
+    <row r="10" ht="13.8" customHeight="1" s="4"/>
+    <row r="11" ht="13.8" customHeight="1" s="4"/>
+    <row r="12" ht="13.8" customHeight="1" s="4"/>
+    <row r="13" ht="13.8" customHeight="1" s="4"/>
+    <row r="14" ht="13.8" customHeight="1" s="4"/>
+    <row r="15" ht="13.8" customHeight="1" s="4"/>
+    <row r="16" ht="13.8" customHeight="1" s="4"/>
+    <row r="17" ht="13.8" customHeight="1" s="4"/>
+    <row r="18" ht="13.8" customHeight="1" s="4"/>
+    <row r="19" ht="13.8" customHeight="1" s="4"/>
+    <row r="20" ht="13.8" customHeight="1" s="4"/>
+    <row r="21" ht="13.8" customHeight="1" s="4"/>
+    <row r="22" ht="13.8" customHeight="1" s="4"/>
+    <row r="23" ht="13.8" customHeight="1" s="4"/>
+    <row r="24" ht="13.8" customHeight="1" s="4"/>
+    <row r="25" ht="13.8" customHeight="1" s="4"/>
+    <row r="26" ht="13.8" customHeight="1" s="4"/>
+    <row r="27" ht="13.8" customHeight="1" s="4"/>
+    <row r="28" ht="13.8" customHeight="1" s="4"/>
+    <row r="29" ht="13.8" customHeight="1" s="4"/>
+    <row r="30" ht="13.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
@@ -464,47 +464,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="4">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>09:58:27</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21-09-22</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1663743507.768512</v>
-      </c>
-    </row>
+    <row r="2" ht="13.8" customHeight="1" s="4"/>
     <row r="3" ht="13.8" customHeight="1" s="4"/>
     <row r="4" ht="13.8" customHeight="1" s="4"/>
     <row r="5" ht="13.8" customHeight="1" s="4"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -68,10 +68,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -454,16 +451,16 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="10.64" customWidth="1" style="3" min="2" max="2"/>
-    <col width="18.57" customWidth="1" style="3" min="4" max="4"/>
+    <col width="10.64" customWidth="1" style="2" min="2" max="2"/>
+    <col width="18.57" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="4">
+    <row r="1" ht="13.8" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
@@ -485,35 +482,35 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="4"/>
-    <row r="3" ht="13.8" customHeight="1" s="4"/>
-    <row r="4" ht="13.8" customHeight="1" s="4"/>
-    <row r="5" ht="13.8" customHeight="1" s="4"/>
-    <row r="6" ht="13.8" customHeight="1" s="4"/>
-    <row r="7" ht="13.8" customHeight="1" s="4"/>
-    <row r="8" ht="13.8" customHeight="1" s="4"/>
-    <row r="9" ht="13.8" customHeight="1" s="4"/>
-    <row r="10" ht="13.8" customHeight="1" s="4"/>
-    <row r="11" ht="13.8" customHeight="1" s="4"/>
-    <row r="12" ht="13.8" customHeight="1" s="4"/>
-    <row r="13" ht="13.8" customHeight="1" s="4"/>
-    <row r="14" ht="13.8" customHeight="1" s="4"/>
-    <row r="15" ht="13.8" customHeight="1" s="4"/>
-    <row r="16" ht="13.8" customHeight="1" s="4"/>
-    <row r="17" ht="13.8" customHeight="1" s="4"/>
-    <row r="18" ht="13.8" customHeight="1" s="4"/>
-    <row r="19" ht="13.8" customHeight="1" s="4"/>
-    <row r="20" ht="13.8" customHeight="1" s="4"/>
-    <row r="21" ht="13.8" customHeight="1" s="4"/>
-    <row r="22" ht="13.8" customHeight="1" s="4"/>
-    <row r="23" ht="13.8" customHeight="1" s="4"/>
-    <row r="24" ht="13.8" customHeight="1" s="4"/>
-    <row r="25" ht="13.8" customHeight="1" s="4"/>
-    <row r="26" ht="13.8" customHeight="1" s="4"/>
-    <row r="27" ht="13.8" customHeight="1" s="4"/>
-    <row r="28" ht="13.8" customHeight="1" s="4"/>
-    <row r="29" ht="13.8" customHeight="1" s="4"/>
-    <row r="30" ht="13.8" customHeight="1" s="4"/>
+    <row r="2" ht="13.8" customHeight="1" s="3"/>
+    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="4" ht="13.8" customHeight="1" s="3"/>
+    <row r="5" ht="13.8" customHeight="1" s="3"/>
+    <row r="6" ht="13.8" customHeight="1" s="3"/>
+    <row r="7" ht="13.8" customHeight="1" s="3"/>
+    <row r="8" ht="13.8" customHeight="1" s="3"/>
+    <row r="9" ht="13.8" customHeight="1" s="3"/>
+    <row r="10" ht="13.8" customHeight="1" s="3"/>
+    <row r="11" ht="13.8" customHeight="1" s="3"/>
+    <row r="12" ht="13.8" customHeight="1" s="3"/>
+    <row r="13" ht="13.8" customHeight="1" s="3"/>
+    <row r="14" ht="13.8" customHeight="1" s="3"/>
+    <row r="15" ht="13.8" customHeight="1" s="3"/>
+    <row r="16" ht="13.8" customHeight="1" s="3"/>
+    <row r="17" ht="13.8" customHeight="1" s="3"/>
+    <row r="18" ht="13.8" customHeight="1" s="3"/>
+    <row r="19" ht="13.8" customHeight="1" s="3"/>
+    <row r="20" ht="13.8" customHeight="1" s="3"/>
+    <row r="21" ht="13.8" customHeight="1" s="3"/>
+    <row r="22" ht="13.8" customHeight="1" s="3"/>
+    <row r="23" ht="13.8" customHeight="1" s="3"/>
+    <row r="24" ht="13.8" customHeight="1" s="3"/>
+    <row r="25" ht="13.8" customHeight="1" s="3"/>
+    <row r="26" ht="13.8" customHeight="1" s="3"/>
+    <row r="27" ht="13.8" customHeight="1" s="3"/>
+    <row r="28" ht="13.8" customHeight="1" s="3"/>
+    <row r="29" ht="13.8" customHeight="1" s="3"/>
+    <row r="30" ht="13.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
@@ -461,29 +461,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3"/>
-    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>11:59:36</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1664787576.076555</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>12:11:37</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1664788297.963865</v>
+      </c>
+    </row>
     <row r="4" ht="13.8" customHeight="1" s="3"/>
     <row r="5" ht="13.8" customHeight="1" s="3"/>
     <row r="6" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11:59:36</t>
+          <t>23:36:59</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1664787576.076555</v>
+        <v>1664829419.777442</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>12:11:37</t>
+          <t>23:37:05</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -519,13 +519,89 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1664788297.963865</v>
+        <v>1664829425.432666</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="3"/>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="6" ht="13.8" customHeight="1" s="3"/>
-    <row r="7" ht="13.8" customHeight="1" s="3"/>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>23:37:10</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1664829430.566454</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>23:37:16</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1664829436.091029</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>23:37:21</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1664829441.374157</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23:38:59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1664829539.322214</v>
+      </c>
+    </row>
     <row r="8" ht="13.8" customHeight="1" s="3"/>
     <row r="9" ht="13.8" customHeight="1" s="3"/>
     <row r="10" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -461,147 +461,33 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>23:36:59</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1664829419.777442</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>23:37:05</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1664829425.432666</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>23:37:10</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1664829430.566454</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>23:37:16</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1664829436.091029</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>23:37:21</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1664829441.374157</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23:38:59</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1664829539.322214</v>
-      </c>
-    </row>
+    <row r="2" ht="13.8" customHeight="1" s="3"/>
+    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="4" ht="13.8" customHeight="1" s="3"/>
+    <row r="5" ht="13.8" customHeight="1" s="3"/>
+    <row r="6" ht="13.8" customHeight="1" s="3"/>
+    <row r="7" ht="13.8" customHeight="1" s="3"/>
     <row r="8" ht="13.8" customHeight="1" s="3"/>
     <row r="9" ht="13.8" customHeight="1" s="3"/>
     <row r="10" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -461,29 +461,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3"/>
-    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>15:52:48</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1664974368.494132</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15:52:53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1664974373.919378</v>
+      </c>
+    </row>
     <row r="4" ht="13.8" customHeight="1" s="3"/>
     <row r="5" ht="13.8" customHeight="1" s="3"/>
     <row r="6" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -490,16 +490,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>15:52:48</t>
+          <t>21:05:41</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1664974368.494132</v>
+        <v>1665079541.348835</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -510,16 +510,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:52:53</t>
+          <t>21:05:46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1664974373.919378</v>
+        <v>1665079546.478611</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -490,49 +490,258 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21:05:41</t>
+          <t>09:39:25</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1665079541.348835</v>
+        <v>1666161565.411743</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>21:05:46</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>06-10-22</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1665079546.478611</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" s="3"/>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="6" ht="13.8" customHeight="1" s="3"/>
-    <row r="7" ht="13.8" customHeight="1" s="3"/>
-    <row r="8" ht="13.8" customHeight="1" s="3"/>
-    <row r="9" ht="13.8" customHeight="1" s="3"/>
-    <row r="10" ht="13.8" customHeight="1" s="3"/>
-    <row r="11" ht="13.8" customHeight="1" s="3"/>
-    <row r="12" ht="13.8" customHeight="1" s="3"/>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>09:39:31</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1666161571.022709</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>09:39:37</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1666161577.810735</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>09:39:43</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1666161583.913332</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>09:39:49</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1666161589.442893</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>09:39:55</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1666161595.304278</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>09:41:02</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1666161662.718908</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>09:41:20</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1666161680.535028</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>10:19:20</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1666163960.609234</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>10:58:05</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1666252685.033704</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>11:01:49</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1666252909.628246</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>11:01:56</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1666252916.303476</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="3">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11:02:02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1666252922.575383</v>
+      </c>
+    </row>
     <row r="15" ht="13.8" customHeight="1" s="3"/>
     <row r="16" ht="13.8" customHeight="1" s="3"/>
     <row r="17" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A7" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -461,287 +461,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>09:39:25</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1666161565.411743</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>09:39:31</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1666161571.022709</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>09:39:37</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1666161577.810735</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>09:39:43</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1666161583.913332</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>09:39:49</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1666161589.442893</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>09:39:55</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1666161595.304278</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>09:41:02</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1666161662.718908</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="3">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>09:41:20</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1666161680.535028</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="3">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>10:19:20</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1666163960.609234</v>
-      </c>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="3">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>10:58:05</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1666252685.033704</v>
-      </c>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="3">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>11:01:49</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1666252909.628246</v>
-      </c>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="3">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>11:01:56</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1666252916.303476</v>
-      </c>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="3">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>11:02:02</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1666252922.575383</v>
-      </c>
-    </row>
+    <row r="2" ht="13.8" customHeight="1" s="3"/>
+    <row r="3" ht="13.8" customHeight="1" s="3"/>
+    <row r="4" ht="13.8" customHeight="1" s="3"/>
+    <row r="5" ht="13.8" customHeight="1" s="3"/>
+    <row r="6" ht="13.8" customHeight="1" s="3"/>
+    <row r="7" ht="13.8" customHeight="1" s="3"/>
+    <row r="8" ht="13.8" customHeight="1" s="3"/>
+    <row r="9" ht="13.8" customHeight="1" s="3"/>
+    <row r="10" ht="13.8" customHeight="1" s="3"/>
+    <row r="11" ht="13.8" customHeight="1" s="3"/>
+    <row r="12" ht="13.8" customHeight="1" s="3"/>
+    <row r="13" ht="13.8" customHeight="1" s="3"/>
+    <row r="14" ht="13.8" customHeight="1" s="3"/>
     <row r="15" ht="13.8" customHeight="1" s="3"/>
     <row r="16" ht="13.8" customHeight="1" s="3"/>
     <row r="17" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A7" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
@@ -461,44 +461,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Epoch</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3"/>
-    <row r="3" ht="13.8" customHeight="1" s="3"/>
-    <row r="4" ht="13.8" customHeight="1" s="3"/>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="6" ht="13.8" customHeight="1" s="3"/>
-    <row r="7" ht="13.8" customHeight="1" s="3"/>
-    <row r="8" ht="13.8" customHeight="1" s="3"/>
-    <row r="9" ht="13.8" customHeight="1" s="3"/>
-    <row r="10" ht="13.8" customHeight="1" s="3"/>
-    <row r="11" ht="13.8" customHeight="1" s="3"/>
-    <row r="12" ht="13.8" customHeight="1" s="3"/>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>10:49:11</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1666684151.558573</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>10:49:16</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1666684156.815614</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>10:49:22</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1666684162.031856</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>10:51:42</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1666684302.313846</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>10:51:47</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1666684307.556232</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>10:51:53</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1666684313.117464</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>10:51:58</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1666684318.528376</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>10:52:03</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1666684323.752079</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>10:52:33</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1666684353.307326</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>10:52:48</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1666684368.895151</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>10:52:57</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1666684377.969913</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>10:53:06</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1666684386.179743</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="3">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>10:53:12</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1666684392.008581</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>10:53:18</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1666684398.629157</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>10:53:28</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1666684408.263955</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>10:53:33</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1666684413.361931</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="3">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10:53:38</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1666684418.781295</v>
+      </c>
+    </row>
     <row r="19" ht="13.8" customHeight="1" s="3"/>
     <row r="20" ht="13.8" customHeight="1" s="3"/>
     <row r="21" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A7" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
@@ -490,16 +490,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10:49:11</t>
+          <t>14:12:52</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1666684151.558573</v>
+        <v>1669032772.534034</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -510,16 +510,16 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>10:49:16</t>
+          <t>14:12:57</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1666684156.815614</v>
+        <v>1669032777.689325</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -530,16 +530,16 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>10:49:22</t>
+          <t>14:13:02</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1666684162.031856</v>
+        <v>1669032782.834629</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -550,16 +550,16 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>10:51:42</t>
+          <t>14:13:08</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1666684302.313846</v>
+        <v>1669032788.133136</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -570,16 +570,16 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>10:51:47</t>
+          <t>14:13:13</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1666684307.556232</v>
+        <v>1669032793.436483</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -590,16 +590,16 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>10:51:53</t>
+          <t>14:13:18</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1666684313.117464</v>
+        <v>1669032798.99474</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -610,16 +610,16 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>10:51:58</t>
+          <t>14:13:24</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1666684318.528376</v>
+        <v>1669032804.457394</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -630,16 +630,16 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>10:52:03</t>
+          <t>14:13:33</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1666684323.752079</v>
+        <v>1669032813.61835</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -650,16 +650,16 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>10:52:33</t>
+          <t>14:13:38</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1666684353.307326</v>
+        <v>1669032818.82955</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -670,158 +670,44 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>10:52:48</t>
+          <t>14:13:44</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1666684368.895151</v>
+        <v>1669032824.484492</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>10:52:57</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1666684377.969913</v>
-      </c>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="3">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>10:53:06</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1666684386.179743</v>
-      </c>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="3">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>10:53:12</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1666684392.008581</v>
-      </c>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="3">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14.</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>10:53:18</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1666684398.629157</v>
-      </c>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" s="3">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>10:53:28</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>1666684408.263955</v>
-      </c>
-    </row>
-    <row r="17" ht="13.8" customHeight="1" s="3">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>10:53:33</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>1666684413.361931</v>
-      </c>
-    </row>
-    <row r="18" ht="13.8" customHeight="1" s="3">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>17.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10:53:38</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1666684418.781295</v>
-      </c>
-    </row>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14:15:53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21-11-22</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1669032953.622912</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="3"/>
+    <row r="14" ht="13.8" customHeight="1" s="3"/>
+    <row r="15" ht="13.8" customHeight="1" s="3"/>
+    <row r="16" ht="13.8" customHeight="1" s="3"/>
+    <row r="17" ht="13.8" customHeight="1" s="3"/>
+    <row r="18" ht="13.8" customHeight="1" s="3"/>
     <row r="19" ht="13.8" customHeight="1" s="3"/>
     <row r="20" ht="13.8" customHeight="1" s="3"/>
     <row r="21" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A7" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
@@ -683,27 +683,65 @@
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>14:15:53</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21-11-22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>1669032953.622912</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
+    <row r="13" ht="13.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>10:57:57</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24-11-22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1669280277.595222</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="3">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18:24:03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-12-22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1670516643.470985</v>
+      </c>
+    </row>
     <row r="15" ht="13.8" customHeight="1" s="3"/>
     <row r="16" ht="13.8" customHeight="1" s="3"/>
     <row r="17" ht="13.8" customHeight="1" s="3"/>

--- a/date_hour.xlsx
+++ b/date_hour.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A7" colorId="64" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
@@ -723,32 +723,165 @@
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>13.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>18:24:03</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>08-12-22</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>1670516643.470985</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
-    <row r="19" ht="13.8" customHeight="1" s="3"/>
-    <row r="20" ht="13.8" customHeight="1" s="3"/>
-    <row r="21" ht="13.8" customHeight="1" s="3"/>
+    <row r="15" ht="13.8" customHeight="1" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>14:46:40</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14-12-22</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1671022000.193439</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>19:37:01</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13-01-23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1673631421.329323</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>19:37:06</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13-01-23</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1673631426.424803</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="3">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>16:07:55</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1673964475.5971</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="3">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18.</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>16:11:43</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1673964703.60287</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="3">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19.</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>16:14:07</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1673964847.816089</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="3">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20.</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>16:20:19</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1673965219.734265</v>
+      </c>
+    </row>
     <row r="22" ht="13.8" customHeight="1" s="3"/>
     <row r="23" ht="13.8" customHeight="1" s="3"/>
     <row r="24" ht="13.8" customHeight="1" s="3"/>
